--- a/DATA/collate_cultivar_data_50_percent/data/stacked_cleaned_data_for_overlay.xlsx
+++ b/DATA/collate_cultivar_data_50_percent/data/stacked_cleaned_data_for_overlay.xlsx
@@ -407,7 +407,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C481"/>
+  <dimension ref="A1:C479"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2982,1779 +2982,1761 @@
     <row r="285" spans="1:3">
       <c r="A285" s="1"/>
       <c r="B285" s="2">
-        <v>43217</v>
+        <v>43223</v>
       </c>
       <c r="C285">
-        <v>0.4466019</v>
+        <v>0.1147059</v>
       </c>
     </row>
     <row r="286" spans="1:3">
       <c r="A286" s="1"/>
       <c r="B286" s="2">
-        <v>43218</v>
+        <v>43224</v>
       </c>
       <c r="C286">
-        <v>0.2291169</v>
+        <v>0.2011494</v>
       </c>
     </row>
     <row r="287" spans="1:3">
       <c r="A287" s="1"/>
       <c r="B287" s="2">
-        <v>43223</v>
+        <v>43225</v>
       </c>
       <c r="C287">
-        <v>0.1147059</v>
+        <v>0.1826625</v>
       </c>
     </row>
     <row r="288" spans="1:3">
       <c r="A288" s="1"/>
       <c r="B288" s="2">
-        <v>43224</v>
+        <v>43226</v>
       </c>
       <c r="C288">
-        <v>0.2011494</v>
+        <v>0.1168478</v>
       </c>
     </row>
     <row r="289" spans="1:3">
       <c r="A289" s="1"/>
       <c r="B289" s="2">
-        <v>43225</v>
+        <v>43233</v>
       </c>
       <c r="C289">
-        <v>0.1826625</v>
+        <v>0.2086168</v>
       </c>
     </row>
     <row r="290" spans="1:3">
       <c r="A290" s="1"/>
       <c r="B290" s="2">
-        <v>43226</v>
+        <v>43233</v>
       </c>
       <c r="C290">
-        <v>0.1168478</v>
+        <v>0.1375661</v>
       </c>
     </row>
     <row r="291" spans="1:3">
       <c r="A291" s="1"/>
       <c r="B291" s="2">
-        <v>43233</v>
+        <v>43234</v>
       </c>
       <c r="C291">
-        <v>0.2086168</v>
+        <v>0.1458333</v>
       </c>
     </row>
     <row r="292" spans="1:3">
       <c r="A292" s="1"/>
       <c r="B292" s="2">
-        <v>43233</v>
+        <v>43234</v>
       </c>
       <c r="C292">
-        <v>0.1375661</v>
+        <v>0.1015228</v>
       </c>
     </row>
     <row r="293" spans="1:3">
       <c r="A293" s="1"/>
       <c r="B293" s="2">
-        <v>43234</v>
+        <v>43265</v>
       </c>
       <c r="C293">
-        <v>0.1458333</v>
+        <v>0.1434109</v>
       </c>
     </row>
     <row r="294" spans="1:3">
-      <c r="A294" s="1"/>
+      <c r="A294" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="B294" s="2">
-        <v>43234</v>
+        <v>42987</v>
       </c>
       <c r="C294">
-        <v>0.1015228</v>
+        <v>0.1138015</v>
       </c>
     </row>
     <row r="295" spans="1:3">
       <c r="A295" s="1"/>
       <c r="B295" s="2">
-        <v>43265</v>
+        <v>42990</v>
       </c>
       <c r="C295">
-        <v>0.1434109</v>
+        <v>0.1170213</v>
       </c>
     </row>
     <row r="296" spans="1:3">
-      <c r="A296" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A296" s="1"/>
       <c r="B296" s="2">
-        <v>42987</v>
+        <v>42992</v>
       </c>
       <c r="C296">
-        <v>0.1138015</v>
+        <v>0.1428571</v>
       </c>
     </row>
     <row r="297" spans="1:3">
       <c r="A297" s="1"/>
       <c r="B297" s="2">
-        <v>42990</v>
+        <v>42994</v>
       </c>
       <c r="C297">
-        <v>0.1170213</v>
+        <v>0.1119792</v>
       </c>
     </row>
     <row r="298" spans="1:3">
       <c r="A298" s="1"/>
       <c r="B298" s="2">
-        <v>42992</v>
+        <v>42995</v>
       </c>
       <c r="C298">
-        <v>0.1428571</v>
+        <v>0.114094</v>
       </c>
     </row>
     <row r="299" spans="1:3">
       <c r="A299" s="1"/>
       <c r="B299" s="2">
-        <v>42994</v>
+        <v>42996</v>
       </c>
       <c r="C299">
-        <v>0.1119792</v>
+        <v>0.1305263</v>
       </c>
     </row>
     <row r="300" spans="1:3">
       <c r="A300" s="1"/>
       <c r="B300" s="2">
-        <v>42995</v>
+        <v>43002</v>
       </c>
       <c r="C300">
-        <v>0.114094</v>
+        <v>0.1041667</v>
       </c>
     </row>
     <row r="301" spans="1:3">
       <c r="A301" s="1"/>
       <c r="B301" s="2">
-        <v>42996</v>
+        <v>43006</v>
       </c>
       <c r="C301">
-        <v>0.1305263</v>
+        <v>0.0888383</v>
       </c>
     </row>
     <row r="302" spans="1:3">
       <c r="A302" s="1"/>
       <c r="B302" s="2">
-        <v>43002</v>
+        <v>43007</v>
       </c>
       <c r="C302">
-        <v>0.1041667</v>
+        <v>0.1384615</v>
       </c>
     </row>
     <row r="303" spans="1:3">
       <c r="A303" s="1"/>
       <c r="B303" s="2">
-        <v>43006</v>
+        <v>43009</v>
       </c>
       <c r="C303">
-        <v>0.0888383</v>
+        <v>0.0887681</v>
       </c>
     </row>
     <row r="304" spans="1:3">
       <c r="A304" s="1"/>
       <c r="B304" s="2">
-        <v>43007</v>
+        <v>43010</v>
       </c>
       <c r="C304">
-        <v>0.1384615</v>
+        <v>0.1278863</v>
       </c>
     </row>
     <row r="305" spans="1:3">
       <c r="A305" s="1"/>
       <c r="B305" s="2">
-        <v>43009</v>
+        <v>43018</v>
       </c>
       <c r="C305">
-        <v>0.0887681</v>
+        <v>0.1966019</v>
       </c>
     </row>
     <row r="306" spans="1:3">
       <c r="A306" s="1"/>
       <c r="B306" s="2">
-        <v>43010</v>
+        <v>43019</v>
       </c>
       <c r="C306">
-        <v>0.1278863</v>
+        <v>0.1828442</v>
       </c>
     </row>
     <row r="307" spans="1:3">
       <c r="A307" s="1"/>
       <c r="B307" s="2">
-        <v>43018</v>
+        <v>43020</v>
       </c>
       <c r="C307">
-        <v>0.1966019</v>
+        <v>0.1438053</v>
       </c>
     </row>
     <row r="308" spans="1:3">
       <c r="A308" s="1"/>
       <c r="B308" s="2">
-        <v>43019</v>
+        <v>43021</v>
       </c>
       <c r="C308">
-        <v>0.1828442</v>
+        <v>0.1268382</v>
       </c>
     </row>
     <row r="309" spans="1:3">
       <c r="A309" s="1"/>
       <c r="B309" s="2">
-        <v>43020</v>
+        <v>43035</v>
       </c>
       <c r="C309">
-        <v>0.1438053</v>
+        <v>0.1889764</v>
       </c>
     </row>
     <row r="310" spans="1:3">
       <c r="A310" s="1"/>
       <c r="B310" s="2">
-        <v>43021</v>
+        <v>43040</v>
       </c>
       <c r="C310">
-        <v>0.1268382</v>
+        <v>0.4084778</v>
       </c>
     </row>
     <row r="311" spans="1:3">
       <c r="A311" s="1"/>
       <c r="B311" s="2">
-        <v>43035</v>
+        <v>43043</v>
       </c>
       <c r="C311">
-        <v>0.1889764</v>
+        <v>0.3365617</v>
       </c>
     </row>
     <row r="312" spans="1:3">
       <c r="A312" s="1"/>
       <c r="B312" s="2">
-        <v>43040</v>
+        <v>43083</v>
       </c>
       <c r="C312">
-        <v>0.4084778</v>
+        <v>0.5813952999999999</v>
       </c>
     </row>
     <row r="313" spans="1:3">
       <c r="A313" s="1"/>
       <c r="B313" s="2">
-        <v>43043</v>
+        <v>43115</v>
       </c>
       <c r="C313">
-        <v>0.3365617</v>
+        <v>0.6528777</v>
       </c>
     </row>
     <row r="314" spans="1:3">
       <c r="A314" s="1"/>
       <c r="B314" s="2">
-        <v>43083</v>
+        <v>43127</v>
       </c>
       <c r="C314">
-        <v>0.5813952999999999</v>
+        <v>0.3636364</v>
       </c>
     </row>
     <row r="315" spans="1:3">
       <c r="A315" s="1"/>
       <c r="B315" s="2">
-        <v>43115</v>
+        <v>43128</v>
       </c>
       <c r="C315">
-        <v>0.6528777</v>
+        <v>0.3379416</v>
       </c>
     </row>
     <row r="316" spans="1:3">
       <c r="A316" s="1"/>
       <c r="B316" s="2">
-        <v>43127</v>
+        <v>43132</v>
       </c>
       <c r="C316">
-        <v>0.3636364</v>
+        <v>0.2920792</v>
       </c>
     </row>
     <row r="317" spans="1:3">
       <c r="A317" s="1"/>
       <c r="B317" s="2">
-        <v>43128</v>
+        <v>43133</v>
       </c>
       <c r="C317">
-        <v>0.3379416</v>
+        <v>0.3642241</v>
       </c>
     </row>
     <row r="318" spans="1:3">
       <c r="A318" s="1"/>
       <c r="B318" s="2">
-        <v>43132</v>
+        <v>43134</v>
       </c>
       <c r="C318">
-        <v>0.2920792</v>
+        <v>0.5736926</v>
       </c>
     </row>
     <row r="319" spans="1:3">
-      <c r="A319" s="1"/>
+      <c r="A319" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="B319" s="2">
-        <v>43133</v>
+        <v>42935</v>
       </c>
       <c r="C319">
-        <v>0.3642241</v>
+        <v>0.1382488</v>
       </c>
     </row>
     <row r="320" spans="1:3">
       <c r="A320" s="1"/>
       <c r="B320" s="2">
-        <v>43134</v>
+        <v>42968</v>
       </c>
       <c r="C320">
-        <v>0.5736926</v>
+        <v>0.1502347</v>
       </c>
     </row>
     <row r="321" spans="1:3">
-      <c r="A321" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="A321" s="1"/>
       <c r="B321" s="2">
-        <v>42935</v>
+        <v>42971</v>
       </c>
       <c r="C321">
-        <v>0.1382488</v>
+        <v>0.095679</v>
       </c>
     </row>
     <row r="322" spans="1:3">
       <c r="A322" s="1"/>
       <c r="B322" s="2">
-        <v>42968</v>
+        <v>42987</v>
       </c>
       <c r="C322">
-        <v>0.1502347</v>
+        <v>0.1138015</v>
       </c>
     </row>
     <row r="323" spans="1:3">
       <c r="A323" s="1"/>
       <c r="B323" s="2">
-        <v>42971</v>
+        <v>42993</v>
       </c>
       <c r="C323">
-        <v>0.095679</v>
+        <v>0.1356784</v>
       </c>
     </row>
     <row r="324" spans="1:3">
       <c r="A324" s="1"/>
       <c r="B324" s="2">
-        <v>42987</v>
+        <v>42995</v>
       </c>
       <c r="C324">
-        <v>0.1138015</v>
+        <v>0.09843399999999999</v>
       </c>
     </row>
     <row r="325" spans="1:3">
       <c r="A325" s="1"/>
       <c r="B325" s="2">
-        <v>42993</v>
+        <v>42996</v>
       </c>
       <c r="C325">
-        <v>0.1356784</v>
+        <v>0.1389474</v>
       </c>
     </row>
     <row r="326" spans="1:3">
       <c r="A326" s="1"/>
       <c r="B326" s="2">
-        <v>42995</v>
+        <v>42998</v>
       </c>
       <c r="C326">
-        <v>0.09843399999999999</v>
+        <v>0.1011673</v>
       </c>
     </row>
     <row r="327" spans="1:3">
       <c r="A327" s="1"/>
       <c r="B327" s="2">
-        <v>42996</v>
+        <v>43007</v>
       </c>
       <c r="C327">
-        <v>0.1389474</v>
+        <v>0.08461539999999999</v>
       </c>
     </row>
     <row r="328" spans="1:3">
       <c r="A328" s="1"/>
       <c r="B328" s="2">
-        <v>42998</v>
+        <v>43010</v>
       </c>
       <c r="C328">
-        <v>0.1011673</v>
+        <v>0.1332149</v>
       </c>
     </row>
     <row r="329" spans="1:3">
       <c r="A329" s="1"/>
       <c r="B329" s="2">
-        <v>43007</v>
+        <v>43018</v>
       </c>
       <c r="C329">
-        <v>0.08461539999999999</v>
+        <v>0.2135922</v>
       </c>
     </row>
     <row r="330" spans="1:3">
       <c r="A330" s="1"/>
       <c r="B330" s="2">
-        <v>43010</v>
+        <v>43019</v>
       </c>
       <c r="C330">
-        <v>0.1332149</v>
+        <v>0.2189616</v>
       </c>
     </row>
     <row r="331" spans="1:3">
       <c r="A331" s="1"/>
       <c r="B331" s="2">
-        <v>43018</v>
+        <v>43020</v>
       </c>
       <c r="C331">
-        <v>0.2135922</v>
+        <v>0.1637168</v>
       </c>
     </row>
     <row r="332" spans="1:3">
       <c r="A332" s="1"/>
       <c r="B332" s="2">
-        <v>43019</v>
+        <v>43021</v>
       </c>
       <c r="C332">
-        <v>0.2189616</v>
+        <v>0.1709559</v>
       </c>
     </row>
     <row r="333" spans="1:3">
       <c r="A333" s="1"/>
       <c r="B333" s="2">
-        <v>43020</v>
+        <v>43021</v>
       </c>
       <c r="C333">
-        <v>0.1637168</v>
+        <v>0.1943888</v>
       </c>
     </row>
     <row r="334" spans="1:3">
       <c r="A334" s="1"/>
       <c r="B334" s="2">
-        <v>43021</v>
+        <v>43034</v>
       </c>
       <c r="C334">
-        <v>0.1709559</v>
+        <v>0.2209738</v>
       </c>
     </row>
     <row r="335" spans="1:3">
       <c r="A335" s="1"/>
       <c r="B335" s="2">
-        <v>43021</v>
+        <v>43053</v>
       </c>
       <c r="C335">
-        <v>0.1943888</v>
+        <v>0.2340426</v>
       </c>
     </row>
     <row r="336" spans="1:3">
       <c r="A336" s="1"/>
       <c r="B336" s="2">
-        <v>43034</v>
+        <v>43062</v>
       </c>
       <c r="C336">
-        <v>0.2209738</v>
+        <v>0.3317647</v>
       </c>
     </row>
     <row r="337" spans="1:3">
       <c r="A337" s="1"/>
       <c r="B337" s="2">
-        <v>43053</v>
+        <v>43067</v>
       </c>
       <c r="C337">
-        <v>0.2340426</v>
+        <v>0.223565</v>
       </c>
     </row>
     <row r="338" spans="1:3">
       <c r="A338" s="1"/>
       <c r="B338" s="2">
-        <v>43062</v>
+        <v>43070</v>
       </c>
       <c r="C338">
-        <v>0.3317647</v>
+        <v>0.2972973</v>
       </c>
     </row>
     <row r="339" spans="1:3">
       <c r="A339" s="1"/>
       <c r="B339" s="2">
-        <v>43067</v>
+        <v>43073</v>
       </c>
       <c r="C339">
-        <v>0.223565</v>
+        <v>0.315197</v>
       </c>
     </row>
     <row r="340" spans="1:3">
       <c r="A340" s="1"/>
       <c r="B340" s="2">
-        <v>43070</v>
+        <v>43074</v>
       </c>
       <c r="C340">
-        <v>0.2972973</v>
+        <v>0.2943662</v>
       </c>
     </row>
     <row r="341" spans="1:3">
       <c r="A341" s="1"/>
       <c r="B341" s="2">
-        <v>43073</v>
+        <v>43088</v>
       </c>
       <c r="C341">
-        <v>0.315197</v>
+        <v>0.2971429</v>
       </c>
     </row>
     <row r="342" spans="1:3">
       <c r="A342" s="1"/>
       <c r="B342" s="2">
-        <v>43074</v>
+        <v>43093</v>
       </c>
       <c r="C342">
-        <v>0.2943662</v>
+        <v>0.3267717</v>
       </c>
     </row>
     <row r="343" spans="1:3">
       <c r="A343" s="1"/>
       <c r="B343" s="2">
-        <v>43088</v>
+        <v>43095</v>
       </c>
       <c r="C343">
-        <v>0.2971429</v>
+        <v>0.4008942</v>
       </c>
     </row>
     <row r="344" spans="1:3">
       <c r="A344" s="1"/>
       <c r="B344" s="2">
-        <v>43093</v>
+        <v>43096</v>
       </c>
       <c r="C344">
-        <v>0.3267717</v>
+        <v>0.3533026</v>
       </c>
     </row>
     <row r="345" spans="1:3">
       <c r="A345" s="1"/>
       <c r="B345" s="2">
-        <v>43095</v>
+        <v>43098</v>
       </c>
       <c r="C345">
-        <v>0.4008942</v>
+        <v>0.3410138</v>
       </c>
     </row>
     <row r="346" spans="1:3">
       <c r="A346" s="1"/>
       <c r="B346" s="2">
-        <v>43096</v>
+        <v>43099</v>
       </c>
       <c r="C346">
-        <v>0.3533026</v>
+        <v>0.2560241</v>
       </c>
     </row>
     <row r="347" spans="1:3">
       <c r="A347" s="1"/>
       <c r="B347" s="2">
-        <v>43098</v>
+        <v>43114</v>
       </c>
       <c r="C347">
-        <v>0.3410138</v>
+        <v>0.3317972</v>
       </c>
     </row>
     <row r="348" spans="1:3">
       <c r="A348" s="1"/>
       <c r="B348" s="2">
-        <v>43099</v>
+        <v>43115</v>
       </c>
       <c r="C348">
-        <v>0.2560241</v>
+        <v>0.4154676</v>
       </c>
     </row>
     <row r="349" spans="1:3">
       <c r="A349" s="1"/>
       <c r="B349" s="2">
-        <v>43114</v>
+        <v>43120</v>
       </c>
       <c r="C349">
-        <v>0.3317972</v>
+        <v>0.7443609</v>
       </c>
     </row>
     <row r="350" spans="1:3">
       <c r="A350" s="1"/>
       <c r="B350" s="2">
-        <v>43115</v>
+        <v>43121</v>
       </c>
       <c r="C350">
-        <v>0.4154676</v>
+        <v>0.3660856</v>
       </c>
     </row>
     <row r="351" spans="1:3">
       <c r="A351" s="1"/>
       <c r="B351" s="2">
-        <v>43120</v>
+        <v>43125</v>
       </c>
       <c r="C351">
-        <v>0.7443609</v>
+        <v>0.7441077</v>
       </c>
     </row>
     <row r="352" spans="1:3">
       <c r="A352" s="1"/>
       <c r="B352" s="2">
-        <v>43121</v>
+        <v>43126</v>
       </c>
       <c r="C352">
-        <v>0.3660856</v>
+        <v>0.5483871</v>
       </c>
     </row>
     <row r="353" spans="1:3">
       <c r="A353" s="1"/>
       <c r="B353" s="2">
-        <v>43125</v>
+        <v>43127</v>
       </c>
       <c r="C353">
-        <v>0.7441077</v>
+        <v>0.3723776</v>
       </c>
     </row>
     <row r="354" spans="1:3">
       <c r="A354" s="1"/>
       <c r="B354" s="2">
-        <v>43126</v>
+        <v>43128</v>
       </c>
       <c r="C354">
-        <v>0.5483871</v>
+        <v>0.3010753</v>
       </c>
     </row>
     <row r="355" spans="1:3">
       <c r="A355" s="1"/>
       <c r="B355" s="2">
-        <v>43127</v>
+        <v>43129</v>
       </c>
       <c r="C355">
-        <v>0.3723776</v>
+        <v>0.3320826</v>
       </c>
     </row>
     <row r="356" spans="1:3">
       <c r="A356" s="1"/>
       <c r="B356" s="2">
-        <v>43128</v>
+        <v>43130</v>
       </c>
       <c r="C356">
-        <v>0.3010753</v>
+        <v>0.535316</v>
       </c>
     </row>
     <row r="357" spans="1:3">
       <c r="A357" s="1"/>
       <c r="B357" s="2">
-        <v>43129</v>
+        <v>43132</v>
       </c>
       <c r="C357">
-        <v>0.3320826</v>
+        <v>0.3333333</v>
       </c>
     </row>
     <row r="358" spans="1:3">
       <c r="A358" s="1"/>
       <c r="B358" s="2">
-        <v>43130</v>
+        <v>43134</v>
       </c>
       <c r="C358">
-        <v>0.535316</v>
+        <v>0.3359746</v>
       </c>
     </row>
     <row r="359" spans="1:3">
-      <c r="A359" s="1"/>
+      <c r="A359" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="B359" s="2">
-        <v>43132</v>
+        <v>42921</v>
       </c>
       <c r="C359">
-        <v>0.3333333</v>
+        <v>0.1371951</v>
       </c>
     </row>
     <row r="360" spans="1:3">
       <c r="A360" s="1"/>
       <c r="B360" s="2">
-        <v>43134</v>
+        <v>42922</v>
       </c>
       <c r="C360">
-        <v>0.3359746</v>
+        <v>0.122449</v>
       </c>
     </row>
     <row r="361" spans="1:3">
-      <c r="A361" s="1" t="s">
-        <v>9</v>
-      </c>
+      <c r="A361" s="1"/>
       <c r="B361" s="2">
-        <v>42921</v>
+        <v>42923</v>
       </c>
       <c r="C361">
-        <v>0.1371951</v>
+        <v>0.1146497</v>
       </c>
     </row>
     <row r="362" spans="1:3">
       <c r="A362" s="1"/>
       <c r="B362" s="2">
-        <v>42922</v>
+        <v>42934</v>
       </c>
       <c r="C362">
-        <v>0.122449</v>
+        <v>0.133829</v>
       </c>
     </row>
     <row r="363" spans="1:3">
       <c r="A363" s="1"/>
       <c r="B363" s="2">
-        <v>42923</v>
+        <v>42935</v>
       </c>
       <c r="C363">
-        <v>0.1146497</v>
+        <v>0.1046512</v>
       </c>
     </row>
     <row r="364" spans="1:3">
       <c r="A364" s="1"/>
       <c r="B364" s="2">
-        <v>42934</v>
+        <v>42936</v>
       </c>
       <c r="C364">
-        <v>0.133829</v>
+        <v>0.1209964</v>
       </c>
     </row>
     <row r="365" spans="1:3">
       <c r="A365" s="1"/>
       <c r="B365" s="2">
-        <v>42935</v>
+        <v>42937</v>
       </c>
       <c r="C365">
-        <v>0.1046512</v>
+        <v>0.0990099</v>
       </c>
     </row>
     <row r="366" spans="1:3">
       <c r="A366" s="1"/>
       <c r="B366" s="2">
-        <v>42936</v>
+        <v>42938</v>
       </c>
       <c r="C366">
-        <v>0.1209964</v>
+        <v>0.0676692</v>
       </c>
     </row>
     <row r="367" spans="1:3">
       <c r="A367" s="1"/>
       <c r="B367" s="2">
-        <v>42937</v>
+        <v>42939</v>
       </c>
       <c r="C367">
-        <v>0.0990099</v>
+        <v>0.0695187</v>
       </c>
     </row>
     <row r="368" spans="1:3">
       <c r="A368" s="1"/>
       <c r="B368" s="2">
-        <v>42938</v>
+        <v>42940</v>
       </c>
       <c r="C368">
-        <v>0.0676692</v>
+        <v>0.1107784</v>
       </c>
     </row>
     <row r="369" spans="1:3">
       <c r="A369" s="1"/>
       <c r="B369" s="2">
-        <v>42939</v>
+        <v>42940</v>
       </c>
       <c r="C369">
-        <v>0.0695187</v>
+        <v>0.1127451</v>
       </c>
     </row>
     <row r="370" spans="1:3">
       <c r="A370" s="1"/>
       <c r="B370" s="2">
-        <v>42940</v>
+        <v>42941</v>
       </c>
       <c r="C370">
-        <v>0.1107784</v>
+        <v>0.1428571</v>
       </c>
     </row>
     <row r="371" spans="1:3">
       <c r="A371" s="1"/>
       <c r="B371" s="2">
-        <v>42940</v>
+        <v>42942</v>
       </c>
       <c r="C371">
-        <v>0.1127451</v>
+        <v>0.0839695</v>
       </c>
     </row>
     <row r="372" spans="1:3">
       <c r="A372" s="1"/>
       <c r="B372" s="2">
-        <v>42941</v>
+        <v>42947</v>
       </c>
       <c r="C372">
-        <v>0.1428571</v>
+        <v>0.0993521</v>
       </c>
     </row>
     <row r="373" spans="1:3">
       <c r="A373" s="1"/>
       <c r="B373" s="2">
-        <v>42942</v>
+        <v>42949</v>
       </c>
       <c r="C373">
-        <v>0.0839695</v>
+        <v>0.1420455</v>
       </c>
     </row>
     <row r="374" spans="1:3">
       <c r="A374" s="1"/>
       <c r="B374" s="2">
-        <v>42947</v>
+        <v>42950</v>
       </c>
       <c r="C374">
-        <v>0.0993521</v>
+        <v>0.09230770000000001</v>
       </c>
     </row>
     <row r="375" spans="1:3">
       <c r="A375" s="1"/>
       <c r="B375" s="2">
-        <v>42949</v>
+        <v>42951</v>
       </c>
       <c r="C375">
-        <v>0.1420455</v>
+        <v>0.124031</v>
       </c>
     </row>
     <row r="376" spans="1:3">
       <c r="A376" s="1"/>
       <c r="B376" s="2">
-        <v>42950</v>
+        <v>42952</v>
       </c>
       <c r="C376">
-        <v>0.09230770000000001</v>
+        <v>0.1243523</v>
       </c>
     </row>
     <row r="377" spans="1:3">
       <c r="A377" s="1"/>
       <c r="B377" s="2">
-        <v>42951</v>
+        <v>42954</v>
       </c>
       <c r="C377">
-        <v>0.124031</v>
+        <v>0.1487603</v>
       </c>
     </row>
     <row r="378" spans="1:3">
       <c r="A378" s="1"/>
       <c r="B378" s="2">
-        <v>42952</v>
+        <v>42955</v>
       </c>
       <c r="C378">
-        <v>0.1243523</v>
+        <v>0.1172161</v>
       </c>
     </row>
     <row r="379" spans="1:3">
       <c r="A379" s="1"/>
       <c r="B379" s="2">
-        <v>42954</v>
+        <v>42957</v>
       </c>
       <c r="C379">
-        <v>0.1487603</v>
+        <v>0.1573034</v>
       </c>
     </row>
     <row r="380" spans="1:3">
       <c r="A380" s="1"/>
       <c r="B380" s="2">
-        <v>42955</v>
+        <v>42961</v>
       </c>
       <c r="C380">
-        <v>0.1172161</v>
+        <v>0.1259259</v>
       </c>
     </row>
     <row r="381" spans="1:3">
       <c r="A381" s="1"/>
       <c r="B381" s="2">
-        <v>42957</v>
+        <v>42962</v>
       </c>
       <c r="C381">
-        <v>0.1573034</v>
+        <v>0.1741573</v>
       </c>
     </row>
     <row r="382" spans="1:3">
       <c r="A382" s="1"/>
       <c r="B382" s="2">
-        <v>42961</v>
+        <v>42966</v>
       </c>
       <c r="C382">
-        <v>0.1259259</v>
+        <v>0.1619433</v>
       </c>
     </row>
     <row r="383" spans="1:3">
       <c r="A383" s="1"/>
       <c r="B383" s="2">
-        <v>42962</v>
+        <v>42967</v>
       </c>
       <c r="C383">
-        <v>0.1741573</v>
+        <v>0.1698113</v>
       </c>
     </row>
     <row r="384" spans="1:3">
       <c r="A384" s="1"/>
       <c r="B384" s="2">
-        <v>42966</v>
+        <v>42970</v>
       </c>
       <c r="C384">
-        <v>0.1619433</v>
+        <v>0.1158537</v>
       </c>
     </row>
     <row r="385" spans="1:3">
       <c r="A385" s="1"/>
       <c r="B385" s="2">
-        <v>42967</v>
+        <v>42971</v>
       </c>
       <c r="C385">
-        <v>0.1698113</v>
+        <v>0.1022727</v>
       </c>
     </row>
     <row r="386" spans="1:3">
       <c r="A386" s="1"/>
       <c r="B386" s="2">
-        <v>42970</v>
+        <v>42975</v>
       </c>
       <c r="C386">
-        <v>0.1158537</v>
+        <v>0.17506</v>
       </c>
     </row>
     <row r="387" spans="1:3">
       <c r="A387" s="1"/>
       <c r="B387" s="2">
-        <v>42971</v>
+        <v>42979</v>
       </c>
       <c r="C387">
-        <v>0.1022727</v>
+        <v>0.1232493</v>
       </c>
     </row>
     <row r="388" spans="1:3">
       <c r="A388" s="1"/>
       <c r="B388" s="2">
-        <v>42975</v>
+        <v>42980</v>
       </c>
       <c r="C388">
-        <v>0.17506</v>
+        <v>0.0825472</v>
       </c>
     </row>
     <row r="389" spans="1:3">
       <c r="A389" s="1"/>
       <c r="B389" s="2">
-        <v>42979</v>
+        <v>42981</v>
       </c>
       <c r="C389">
-        <v>0.1232493</v>
+        <v>0.07142859999999999</v>
       </c>
     </row>
     <row r="390" spans="1:3">
       <c r="A390" s="1"/>
       <c r="B390" s="2">
-        <v>42980</v>
+        <v>42982</v>
       </c>
       <c r="C390">
-        <v>0.0825472</v>
+        <v>0.0533333</v>
       </c>
     </row>
     <row r="391" spans="1:3">
       <c r="A391" s="1"/>
       <c r="B391" s="2">
-        <v>42981</v>
+        <v>42988</v>
       </c>
       <c r="C391">
-        <v>0.07142859999999999</v>
+        <v>0.0507614</v>
       </c>
     </row>
     <row r="392" spans="1:3">
       <c r="A392" s="1"/>
       <c r="B392" s="2">
-        <v>42982</v>
+        <v>42989</v>
       </c>
       <c r="C392">
-        <v>0.0533333</v>
+        <v>0.1404959</v>
       </c>
     </row>
     <row r="393" spans="1:3">
       <c r="A393" s="1"/>
       <c r="B393" s="2">
-        <v>42988</v>
+        <v>42989</v>
       </c>
       <c r="C393">
-        <v>0.0507614</v>
+        <v>0.1416185</v>
       </c>
     </row>
     <row r="394" spans="1:3">
       <c r="A394" s="1"/>
       <c r="B394" s="2">
-        <v>42989</v>
+        <v>42990</v>
       </c>
       <c r="C394">
-        <v>0.1404959</v>
+        <v>0.0668449</v>
       </c>
     </row>
     <row r="395" spans="1:3">
       <c r="A395" s="1"/>
       <c r="B395" s="2">
-        <v>42989</v>
+        <v>42992</v>
       </c>
       <c r="C395">
-        <v>0.1416185</v>
+        <v>0.1418919</v>
       </c>
     </row>
     <row r="396" spans="1:3">
       <c r="A396" s="1"/>
       <c r="B396" s="2">
-        <v>42990</v>
+        <v>42992</v>
       </c>
       <c r="C396">
-        <v>0.0668449</v>
+        <v>0.1435897</v>
       </c>
     </row>
     <row r="397" spans="1:3">
       <c r="A397" s="1"/>
       <c r="B397" s="2">
-        <v>42992</v>
+        <v>42993</v>
       </c>
       <c r="C397">
-        <v>0.1418919</v>
+        <v>0.0786517</v>
       </c>
     </row>
     <row r="398" spans="1:3">
       <c r="A398" s="1"/>
       <c r="B398" s="2">
-        <v>42992</v>
+        <v>42993</v>
       </c>
       <c r="C398">
-        <v>0.1435897</v>
+        <v>0.1155378</v>
       </c>
     </row>
     <row r="399" spans="1:3">
       <c r="A399" s="1"/>
       <c r="B399" s="2">
-        <v>42993</v>
+        <v>42994</v>
       </c>
       <c r="C399">
-        <v>0.0786517</v>
+        <v>0.0932945</v>
       </c>
     </row>
     <row r="400" spans="1:3">
       <c r="A400" s="1"/>
       <c r="B400" s="2">
-        <v>42993</v>
+        <v>42997</v>
       </c>
       <c r="C400">
-        <v>0.1155378</v>
+        <v>0.08398949999999999</v>
       </c>
     </row>
     <row r="401" spans="1:3">
       <c r="A401" s="1"/>
       <c r="B401" s="2">
-        <v>42994</v>
+        <v>42998</v>
       </c>
       <c r="C401">
-        <v>0.0932945</v>
+        <v>0.0522523</v>
       </c>
     </row>
     <row r="402" spans="1:3">
       <c r="A402" s="1"/>
       <c r="B402" s="2">
-        <v>42997</v>
+        <v>42999</v>
       </c>
       <c r="C402">
-        <v>0.08398949999999999</v>
+        <v>0.0539084</v>
       </c>
     </row>
     <row r="403" spans="1:3">
       <c r="A403" s="1"/>
       <c r="B403" s="2">
-        <v>42998</v>
+        <v>43000</v>
       </c>
       <c r="C403">
-        <v>0.0522523</v>
+        <v>0.094697</v>
       </c>
     </row>
     <row r="404" spans="1:3">
       <c r="A404" s="1"/>
       <c r="B404" s="2">
-        <v>42999</v>
+        <v>43001</v>
       </c>
       <c r="C404">
-        <v>0.0539084</v>
+        <v>0.0705128</v>
       </c>
     </row>
     <row r="405" spans="1:3">
       <c r="A405" s="1"/>
       <c r="B405" s="2">
-        <v>43000</v>
+        <v>43002</v>
       </c>
       <c r="C405">
-        <v>0.094697</v>
+        <v>0.0841837</v>
       </c>
     </row>
     <row r="406" spans="1:3">
       <c r="A406" s="1"/>
       <c r="B406" s="2">
-        <v>43001</v>
+        <v>43006</v>
       </c>
       <c r="C406">
-        <v>0.0705128</v>
+        <v>0.0590717</v>
       </c>
     </row>
     <row r="407" spans="1:3">
       <c r="A407" s="1"/>
       <c r="B407" s="2">
-        <v>43002</v>
+        <v>43007</v>
       </c>
       <c r="C407">
-        <v>0.0841837</v>
+        <v>0.0835735</v>
       </c>
     </row>
     <row r="408" spans="1:3">
       <c r="A408" s="1"/>
       <c r="B408" s="2">
-        <v>43006</v>
+        <v>43008</v>
       </c>
       <c r="C408">
-        <v>0.0590717</v>
+        <v>0.064877</v>
       </c>
     </row>
     <row r="409" spans="1:3">
       <c r="A409" s="1"/>
       <c r="B409" s="2">
-        <v>43007</v>
+        <v>43009</v>
       </c>
       <c r="C409">
-        <v>0.0835735</v>
+        <v>0.2126582</v>
       </c>
     </row>
     <row r="410" spans="1:3">
       <c r="A410" s="1"/>
       <c r="B410" s="2">
-        <v>43008</v>
+        <v>43010</v>
       </c>
       <c r="C410">
-        <v>0.064877</v>
+        <v>0.0917574</v>
       </c>
     </row>
     <row r="411" spans="1:3">
       <c r="A411" s="1"/>
       <c r="B411" s="2">
-        <v>43009</v>
+        <v>43012</v>
       </c>
       <c r="C411">
-        <v>0.2126582</v>
+        <v>0.1945525</v>
       </c>
     </row>
     <row r="412" spans="1:3">
       <c r="A412" s="1"/>
       <c r="B412" s="2">
-        <v>43010</v>
+        <v>43013</v>
       </c>
       <c r="C412">
-        <v>0.0917574</v>
+        <v>0.1259542</v>
       </c>
     </row>
     <row r="413" spans="1:3">
       <c r="A413" s="1"/>
       <c r="B413" s="2">
-        <v>43012</v>
+        <v>43014</v>
       </c>
       <c r="C413">
-        <v>0.1945525</v>
+        <v>0.1254545</v>
       </c>
     </row>
     <row r="414" spans="1:3">
       <c r="A414" s="1"/>
       <c r="B414" s="2">
-        <v>43013</v>
+        <v>43015</v>
       </c>
       <c r="C414">
-        <v>0.1259542</v>
+        <v>0.1403813</v>
       </c>
     </row>
     <row r="415" spans="1:3">
       <c r="A415" s="1"/>
       <c r="B415" s="2">
-        <v>43014</v>
+        <v>43017</v>
       </c>
       <c r="C415">
-        <v>0.1254545</v>
+        <v>0.2189189</v>
       </c>
     </row>
     <row r="416" spans="1:3">
       <c r="A416" s="1"/>
       <c r="B416" s="2">
-        <v>43015</v>
+        <v>43018</v>
       </c>
       <c r="C416">
-        <v>0.1403813</v>
+        <v>0.1855422</v>
       </c>
     </row>
     <row r="417" spans="1:3">
       <c r="A417" s="1"/>
       <c r="B417" s="2">
-        <v>43017</v>
+        <v>43020</v>
       </c>
       <c r="C417">
-        <v>0.2189189</v>
+        <v>0.1954545</v>
       </c>
     </row>
     <row r="418" spans="1:3">
       <c r="A418" s="1"/>
       <c r="B418" s="2">
-        <v>43018</v>
+        <v>43021</v>
       </c>
       <c r="C418">
-        <v>0.1855422</v>
+        <v>0.2073955</v>
       </c>
     </row>
     <row r="419" spans="1:3">
       <c r="A419" s="1"/>
       <c r="B419" s="2">
-        <v>43020</v>
+        <v>43036</v>
       </c>
       <c r="C419">
-        <v>0.1954545</v>
+        <v>0.1872279</v>
       </c>
     </row>
     <row r="420" spans="1:3">
       <c r="A420" s="1"/>
       <c r="B420" s="2">
-        <v>43021</v>
+        <v>43040</v>
       </c>
       <c r="C420">
-        <v>0.2073955</v>
+        <v>0.2715827</v>
       </c>
     </row>
     <row r="421" spans="1:3">
       <c r="A421" s="1"/>
       <c r="B421" s="2">
-        <v>43036</v>
+        <v>43042</v>
       </c>
       <c r="C421">
-        <v>0.1872279</v>
+        <v>0.3282548</v>
       </c>
     </row>
     <row r="422" spans="1:3">
       <c r="A422" s="1"/>
       <c r="B422" s="2">
-        <v>43040</v>
+        <v>43066</v>
       </c>
       <c r="C422">
-        <v>0.2715827</v>
+        <v>0.2176235</v>
       </c>
     </row>
     <row r="423" spans="1:3">
       <c r="A423" s="1"/>
       <c r="B423" s="2">
-        <v>43042</v>
+        <v>43073</v>
       </c>
       <c r="C423">
-        <v>0.3282548</v>
+        <v>0.4278075</v>
       </c>
     </row>
     <row r="424" spans="1:3">
       <c r="A424" s="1"/>
       <c r="B424" s="2">
-        <v>43066</v>
+        <v>43075</v>
       </c>
       <c r="C424">
-        <v>0.2176235</v>
+        <v>0.6756757</v>
       </c>
     </row>
     <row r="425" spans="1:3">
       <c r="A425" s="1"/>
       <c r="B425" s="2">
-        <v>43073</v>
+        <v>43078</v>
       </c>
       <c r="C425">
-        <v>0.4278075</v>
+        <v>0.3295292</v>
       </c>
     </row>
     <row r="426" spans="1:3">
       <c r="A426" s="1"/>
       <c r="B426" s="2">
-        <v>43075</v>
+        <v>43088</v>
       </c>
       <c r="C426">
-        <v>0.6756757</v>
+        <v>0.4149933</v>
       </c>
     </row>
     <row r="427" spans="1:3">
       <c r="A427" s="1"/>
       <c r="B427" s="2">
-        <v>43078</v>
+        <v>43090</v>
       </c>
       <c r="C427">
-        <v>0.3295292</v>
+        <v>0.6850829000000001</v>
       </c>
     </row>
     <row r="428" spans="1:3">
       <c r="A428" s="1"/>
       <c r="B428" s="2">
-        <v>43088</v>
+        <v>43095</v>
       </c>
       <c r="C428">
-        <v>0.4149933</v>
+        <v>0.7197802</v>
       </c>
     </row>
     <row r="429" spans="1:3">
       <c r="A429" s="1"/>
       <c r="B429" s="2">
-        <v>43090</v>
+        <v>43096</v>
       </c>
       <c r="C429">
-        <v>0.6850829000000001</v>
+        <v>0.3839662</v>
       </c>
     </row>
     <row r="430" spans="1:3">
       <c r="A430" s="1"/>
       <c r="B430" s="2">
-        <v>43095</v>
+        <v>43104</v>
       </c>
       <c r="C430">
-        <v>0.7197802</v>
+        <v>0.5576923</v>
       </c>
     </row>
     <row r="431" spans="1:3">
       <c r="A431" s="1"/>
       <c r="B431" s="2">
-        <v>43096</v>
+        <v>43106</v>
       </c>
       <c r="C431">
-        <v>0.3839662</v>
+        <v>0.2743506</v>
       </c>
     </row>
     <row r="432" spans="1:3">
       <c r="A432" s="1"/>
       <c r="B432" s="2">
-        <v>43104</v>
+        <v>43109</v>
       </c>
       <c r="C432">
-        <v>0.5576923</v>
+        <v>0.4695122</v>
       </c>
     </row>
     <row r="433" spans="1:3">
       <c r="A433" s="1"/>
       <c r="B433" s="2">
-        <v>43106</v>
+        <v>43111</v>
       </c>
       <c r="C433">
-        <v>0.2743506</v>
+        <v>0.3188623</v>
       </c>
     </row>
     <row r="434" spans="1:3">
       <c r="A434" s="1"/>
       <c r="B434" s="2">
-        <v>43109</v>
+        <v>43114</v>
       </c>
       <c r="C434">
-        <v>0.4695122</v>
+        <v>0.451664</v>
       </c>
     </row>
     <row r="435" spans="1:3">
       <c r="A435" s="1"/>
       <c r="B435" s="2">
-        <v>43111</v>
+        <v>43116</v>
       </c>
       <c r="C435">
-        <v>0.3188623</v>
+        <v>0.5191041</v>
       </c>
     </row>
     <row r="436" spans="1:3">
       <c r="A436" s="1"/>
       <c r="B436" s="2">
-        <v>43114</v>
+        <v>43118</v>
       </c>
       <c r="C436">
-        <v>0.451664</v>
+        <v>0.6185853</v>
       </c>
     </row>
     <row r="437" spans="1:3">
       <c r="A437" s="1"/>
       <c r="B437" s="2">
-        <v>43116</v>
+        <v>43123</v>
       </c>
       <c r="C437">
-        <v>0.5191041</v>
+        <v>0.4397993</v>
       </c>
     </row>
     <row r="438" spans="1:3">
       <c r="A438" s="1"/>
       <c r="B438" s="2">
-        <v>43118</v>
+        <v>43131</v>
       </c>
       <c r="C438">
-        <v>0.6185853</v>
+        <v>0.3900344</v>
       </c>
     </row>
     <row r="439" spans="1:3">
       <c r="A439" s="1"/>
       <c r="B439" s="2">
-        <v>43123</v>
+        <v>43136</v>
       </c>
       <c r="C439">
-        <v>0.4397993</v>
+        <v>0.7030995</v>
       </c>
     </row>
     <row r="440" spans="1:3">
       <c r="A440" s="1"/>
       <c r="B440" s="2">
-        <v>43131</v>
+        <v>43137</v>
       </c>
       <c r="C440">
-        <v>0.3900344</v>
+        <v>0.5514706</v>
       </c>
     </row>
     <row r="441" spans="1:3">
       <c r="A441" s="1"/>
       <c r="B441" s="2">
-        <v>43136</v>
+        <v>43137</v>
       </c>
       <c r="C441">
-        <v>0.7030995</v>
+        <v>0.5022971000000001</v>
       </c>
     </row>
     <row r="442" spans="1:3">
       <c r="A442" s="1"/>
       <c r="B442" s="2">
-        <v>43137</v>
+        <v>43140</v>
       </c>
       <c r="C442">
-        <v>0.5514706</v>
+        <v>0.7040998000000001</v>
       </c>
     </row>
     <row r="443" spans="1:3">
       <c r="A443" s="1"/>
       <c r="B443" s="2">
-        <v>43137</v>
+        <v>43146</v>
       </c>
       <c r="C443">
-        <v>0.5022971000000001</v>
+        <v>0.6424051</v>
       </c>
     </row>
     <row r="444" spans="1:3">
       <c r="A444" s="1"/>
       <c r="B444" s="2">
-        <v>43140</v>
+        <v>43146</v>
       </c>
       <c r="C444">
-        <v>0.7040998000000001</v>
+        <v>0.3402923</v>
       </c>
     </row>
     <row r="445" spans="1:3">
       <c r="A445" s="1"/>
       <c r="B445" s="2">
-        <v>43146</v>
+        <v>43147</v>
       </c>
       <c r="C445">
-        <v>0.6424051</v>
+        <v>0.3713235</v>
       </c>
     </row>
     <row r="446" spans="1:3">
       <c r="A446" s="1"/>
       <c r="B446" s="2">
-        <v>43146</v>
+        <v>43149</v>
       </c>
       <c r="C446">
-        <v>0.3402923</v>
+        <v>0.4791667</v>
       </c>
     </row>
     <row r="447" spans="1:3">
       <c r="A447" s="1"/>
       <c r="B447" s="2">
-        <v>43147</v>
+        <v>43151</v>
       </c>
       <c r="C447">
-        <v>0.3713235</v>
+        <v>0.5538695</v>
       </c>
     </row>
     <row r="448" spans="1:3">
       <c r="A448" s="1"/>
       <c r="B448" s="2">
-        <v>43149</v>
+        <v>43152</v>
       </c>
       <c r="C448">
-        <v>0.4791667</v>
+        <v>0.4393305</v>
       </c>
     </row>
     <row r="449" spans="1:3">
       <c r="A449" s="1"/>
       <c r="B449" s="2">
-        <v>43151</v>
+        <v>43154</v>
       </c>
       <c r="C449">
-        <v>0.5538695</v>
+        <v>0.2943038</v>
       </c>
     </row>
     <row r="450" spans="1:3">
       <c r="A450" s="1"/>
       <c r="B450" s="2">
-        <v>43152</v>
+        <v>43158</v>
       </c>
       <c r="C450">
-        <v>0.4393305</v>
+        <v>0.4030303</v>
       </c>
     </row>
     <row r="451" spans="1:3">
       <c r="A451" s="1"/>
       <c r="B451" s="2">
-        <v>43154</v>
+        <v>43164</v>
       </c>
       <c r="C451">
-        <v>0.2943038</v>
+        <v>0.3944954</v>
       </c>
     </row>
     <row r="452" spans="1:3">
       <c r="A452" s="1"/>
       <c r="B452" s="2">
-        <v>43158</v>
+        <v>43172</v>
       </c>
       <c r="C452">
-        <v>0.4030303</v>
+        <v>0.2525773</v>
       </c>
     </row>
     <row r="453" spans="1:3">
       <c r="A453" s="1"/>
       <c r="B453" s="2">
-        <v>43164</v>
+        <v>43176</v>
       </c>
       <c r="C453">
-        <v>0.3944954</v>
+        <v>0.4233871</v>
       </c>
     </row>
     <row r="454" spans="1:3">
       <c r="A454" s="1"/>
       <c r="B454" s="2">
-        <v>43172</v>
+        <v>43177</v>
       </c>
       <c r="C454">
-        <v>0.2525773</v>
+        <v>0.4324324</v>
       </c>
     </row>
     <row r="455" spans="1:3">
       <c r="A455" s="1"/>
       <c r="B455" s="2">
-        <v>43176</v>
+        <v>43178</v>
       </c>
       <c r="C455">
-        <v>0.4233871</v>
+        <v>0.3315927</v>
       </c>
     </row>
     <row r="456" spans="1:3">
       <c r="A456" s="1"/>
       <c r="B456" s="2">
-        <v>43177</v>
+        <v>43179</v>
       </c>
       <c r="C456">
-        <v>0.4324324</v>
+        <v>0.2491909</v>
       </c>
     </row>
     <row r="457" spans="1:3">
       <c r="A457" s="1"/>
       <c r="B457" s="2">
-        <v>43178</v>
+        <v>43180</v>
       </c>
       <c r="C457">
-        <v>0.3315927</v>
+        <v>0.4752137</v>
       </c>
     </row>
     <row r="458" spans="1:3">
       <c r="A458" s="1"/>
       <c r="B458" s="2">
-        <v>43179</v>
+        <v>43183</v>
       </c>
       <c r="C458">
-        <v>0.2491909</v>
+        <v>0.2880658</v>
       </c>
     </row>
     <row r="459" spans="1:3">
       <c r="A459" s="1"/>
       <c r="B459" s="2">
-        <v>43180</v>
+        <v>43188</v>
       </c>
       <c r="C459">
-        <v>0.4752137</v>
+        <v>0.2478992</v>
       </c>
     </row>
     <row r="460" spans="1:3">
       <c r="A460" s="1"/>
       <c r="B460" s="2">
-        <v>43183</v>
+        <v>43189</v>
       </c>
       <c r="C460">
-        <v>0.2880658</v>
+        <v>0.3628692</v>
       </c>
     </row>
     <row r="461" spans="1:3">
       <c r="A461" s="1"/>
       <c r="B461" s="2">
-        <v>43188</v>
+        <v>43189</v>
       </c>
       <c r="C461">
-        <v>0.2478992</v>
+        <v>0.4217252</v>
       </c>
     </row>
     <row r="462" spans="1:3">
       <c r="A462" s="1"/>
       <c r="B462" s="2">
-        <v>43189</v>
+        <v>43190</v>
       </c>
       <c r="C462">
-        <v>0.3628692</v>
+        <v>0.204</v>
       </c>
     </row>
     <row r="463" spans="1:3">
       <c r="A463" s="1"/>
       <c r="B463" s="2">
-        <v>43189</v>
+        <v>43193</v>
       </c>
       <c r="C463">
-        <v>0.4217252</v>
+        <v>0.3198198</v>
       </c>
     </row>
     <row r="464" spans="1:3">
       <c r="A464" s="1"/>
       <c r="B464" s="2">
-        <v>43190</v>
+        <v>43196</v>
       </c>
       <c r="C464">
-        <v>0.204</v>
+        <v>0.5952891</v>
       </c>
     </row>
     <row r="465" spans="1:3">
       <c r="A465" s="1"/>
       <c r="B465" s="2">
-        <v>43193</v>
+        <v>43201</v>
       </c>
       <c r="C465">
-        <v>0.3198198</v>
+        <v>0.2924791</v>
       </c>
     </row>
     <row r="466" spans="1:3">
       <c r="A466" s="1"/>
       <c r="B466" s="2">
-        <v>43196</v>
+        <v>43205</v>
       </c>
       <c r="C466">
-        <v>0.5952891</v>
+        <v>0.2696897</v>
       </c>
     </row>
     <row r="467" spans="1:3">
       <c r="A467" s="1"/>
       <c r="B467" s="2">
-        <v>43201</v>
+        <v>43210</v>
       </c>
       <c r="C467">
-        <v>0.2924791</v>
+        <v>0.5496368</v>
       </c>
     </row>
     <row r="468" spans="1:3">
       <c r="A468" s="1"/>
       <c r="B468" s="2">
-        <v>43205</v>
+        <v>43212</v>
       </c>
       <c r="C468">
-        <v>0.2696897</v>
+        <v>0.5516432</v>
       </c>
     </row>
     <row r="469" spans="1:3">
       <c r="A469" s="1"/>
       <c r="B469" s="2">
-        <v>43210</v>
+        <v>43213</v>
       </c>
       <c r="C469">
-        <v>0.5496368</v>
+        <v>0.2200436</v>
       </c>
     </row>
     <row r="470" spans="1:3">
       <c r="A470" s="1"/>
       <c r="B470" s="2">
-        <v>43212</v>
+        <v>43213</v>
       </c>
       <c r="C470">
-        <v>0.5516432</v>
+        <v>0.414966</v>
       </c>
     </row>
     <row r="471" spans="1:3">
       <c r="A471" s="1"/>
       <c r="B471" s="2">
-        <v>43213</v>
+        <v>43215</v>
       </c>
       <c r="C471">
-        <v>0.2200436</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="472" spans="1:3">
       <c r="A472" s="1"/>
       <c r="B472" s="2">
-        <v>43213</v>
+        <v>43223</v>
       </c>
       <c r="C472">
-        <v>0.414966</v>
+        <v>0.2823529</v>
       </c>
     </row>
     <row r="473" spans="1:3">
       <c r="A473" s="1"/>
       <c r="B473" s="2">
-        <v>43215</v>
+        <v>43226</v>
       </c>
       <c r="C473">
-        <v>0.35</v>
+        <v>0.1657609</v>
       </c>
     </row>
     <row r="474" spans="1:3">
       <c r="A474" s="1"/>
       <c r="B474" s="2">
-        <v>43223</v>
+        <v>43228</v>
       </c>
       <c r="C474">
-        <v>0.2823529</v>
+        <v>0.2068966</v>
       </c>
     </row>
     <row r="475" spans="1:3">
       <c r="A475" s="1"/>
       <c r="B475" s="2">
-        <v>43226</v>
+        <v>43232</v>
       </c>
       <c r="C475">
-        <v>0.1657609</v>
+        <v>0.2135417</v>
       </c>
     </row>
     <row r="476" spans="1:3">
       <c r="A476" s="1"/>
       <c r="B476" s="2">
-        <v>43228</v>
+        <v>43234</v>
       </c>
       <c r="C476">
-        <v>0.2068966</v>
+        <v>0.2436548</v>
       </c>
     </row>
     <row r="477" spans="1:3">
       <c r="A477" s="1"/>
       <c r="B477" s="2">
-        <v>43232</v>
+        <v>43235</v>
       </c>
       <c r="C477">
-        <v>0.2135417</v>
+        <v>0.1153846</v>
       </c>
     </row>
     <row r="478" spans="1:3">
       <c r="A478" s="1"/>
       <c r="B478" s="2">
-        <v>43234</v>
+        <v>43261</v>
       </c>
       <c r="C478">
-        <v>0.2436548</v>
+        <v>0.0943396</v>
       </c>
     </row>
     <row r="479" spans="1:3">
       <c r="A479" s="1"/>
       <c r="B479" s="2">
-        <v>43235</v>
+        <v>43265</v>
       </c>
       <c r="C479">
-        <v>0.1153846</v>
-      </c>
-    </row>
-    <row r="480" spans="1:3">
-      <c r="A480" s="1"/>
-      <c r="B480" s="2">
-        <v>43261</v>
-      </c>
-      <c r="C480">
-        <v>0.0943396</v>
-      </c>
-    </row>
-    <row r="481" spans="1:3">
-      <c r="A481" s="1"/>
-      <c r="B481" s="2">
-        <v>43265</v>
-      </c>
-      <c r="C481">
         <v>0.1046512</v>
       </c>
     </row>
@@ -4763,10 +4745,10 @@
     <mergeCell ref="A2:A55"/>
     <mergeCell ref="A56:A88"/>
     <mergeCell ref="A89:A157"/>
-    <mergeCell ref="A158:A295"/>
-    <mergeCell ref="A296:A320"/>
-    <mergeCell ref="A321:A360"/>
-    <mergeCell ref="A361:A481"/>
+    <mergeCell ref="A158:A293"/>
+    <mergeCell ref="A294:A318"/>
+    <mergeCell ref="A319:A358"/>
+    <mergeCell ref="A359:A479"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
